--- a/SMART DataDriven KPC/SMART DataDriven KPC/Resources/TestMails.xlsx
+++ b/SMART DataDriven KPC/SMART DataDriven KPC/Resources/TestMails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\a1qa\Level2\SMART DataDriven KPC\SMART DataDriven KPC\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC073E9-750D-4070-831B-13C8210B9B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A16F4CE-0389-4A47-9CBB-E53C0FDC3940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t>test013567@gmail.com</t>
   </si>
   <si>
-    <t>TestPassword0123</t>
-  </si>
-  <si>
     <t>UserName</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
   </si>
   <si>
     <t>Secure Connection</t>
+  </si>
+  <si>
+    <t>****************</t>
   </si>
 </sst>
 </file>
@@ -380,7 +380,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,16 +390,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -407,13 +407,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
